--- a/database.xlsx
+++ b/database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="657">
   <si>
     <t xml:space="preserve">Группа товаров</t>
   </si>
@@ -2113,13 +2113,15 @@
   </sheetPr>
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="10" style="0" width="20"/>
   </cols>
@@ -2199,6 +2201,9 @@
       <c r="F2" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="G2" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="H2" s="0" t="s">
         <v>23</v>
       </c>
@@ -2252,6 +2257,9 @@
       <c r="F3" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="G3" s="0" t="s">
+        <v>36</v>
+      </c>
       <c r="H3" s="0" t="s">
         <v>37</v>
       </c>
@@ -2296,6 +2304,9 @@
       <c r="F4" s="0" t="s">
         <v>48</v>
       </c>
+      <c r="G4" s="0" t="s">
+        <v>48</v>
+      </c>
       <c r="K4" s="0" t="s">
         <v>49</v>
       </c>
@@ -2325,6 +2336,9 @@
       <c r="F5" s="0" t="s">
         <v>54</v>
       </c>
+      <c r="G5" s="0" t="s">
+        <v>54</v>
+      </c>
       <c r="K5" s="0" t="s">
         <v>55</v>
       </c>
@@ -2342,6 +2356,9 @@
       <c r="F6" s="0" t="s">
         <v>57</v>
       </c>
+      <c r="G6" s="0" t="s">
+        <v>57</v>
+      </c>
       <c r="O6" s="0" t="s">
         <v>58</v>
       </c>
@@ -2368,6 +2385,9 @@
       <c r="F7" s="0" t="s">
         <v>62</v>
       </c>
+      <c r="G7" s="0" t="s">
+        <v>62</v>
+      </c>
       <c r="H7" s="0" t="s">
         <v>63</v>
       </c>
@@ -2418,6 +2438,9 @@
       <c r="F8" s="0" t="s">
         <v>57</v>
       </c>
+      <c r="G8" s="0" t="s">
+        <v>57</v>
+      </c>
       <c r="H8" s="0" t="s">
         <v>74</v>
       </c>
@@ -2468,6 +2491,9 @@
       <c r="F9" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="G9" s="0" t="s">
+        <v>85</v>
+      </c>
       <c r="H9" s="0" t="s">
         <v>86</v>
       </c>
@@ -2518,6 +2544,9 @@
       <c r="F10" s="0" t="s">
         <v>97</v>
       </c>
+      <c r="G10" s="0" t="s">
+        <v>97</v>
+      </c>
       <c r="H10" s="0" t="s">
         <v>98</v>
       </c>
@@ -2568,6 +2597,9 @@
       <c r="F11" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="G11" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="H11" s="0" t="s">
         <v>110</v>
       </c>
@@ -2749,6 +2781,9 @@
       <c r="F16" s="0" t="s">
         <v>151</v>
       </c>
+      <c r="G16" s="0" t="s">
+        <v>151</v>
+      </c>
       <c r="H16" s="0" t="s">
         <v>152</v>
       </c>
@@ -2799,6 +2834,9 @@
       <c r="F17" s="0" t="s">
         <v>163</v>
       </c>
+      <c r="G17" s="0" t="s">
+        <v>163</v>
+      </c>
       <c r="H17" s="0" t="s">
         <v>164</v>
       </c>
@@ -2849,6 +2887,9 @@
       <c r="F18" s="0" t="s">
         <v>176</v>
       </c>
+      <c r="G18" s="0" t="s">
+        <v>176</v>
+      </c>
       <c r="H18" s="0" t="s">
         <v>177</v>
       </c>
@@ -2899,6 +2940,9 @@
       <c r="F19" s="0" t="s">
         <v>189</v>
       </c>
+      <c r="G19" s="0" t="s">
+        <v>189</v>
+      </c>
       <c r="H19" s="0" t="s">
         <v>190</v>
       </c>
@@ -2949,6 +2993,9 @@
       <c r="F20" s="0" t="s">
         <v>202</v>
       </c>
+      <c r="G20" s="0" t="s">
+        <v>202</v>
+      </c>
       <c r="H20" s="0" t="s">
         <v>203</v>
       </c>
@@ -2996,6 +3043,9 @@
       <c r="F21" s="0" t="s">
         <v>213</v>
       </c>
+      <c r="G21" s="0" t="s">
+        <v>213</v>
+      </c>
       <c r="H21" s="0" t="s">
         <v>214</v>
       </c>
@@ -3046,6 +3096,9 @@
       <c r="F22" s="0" t="s">
         <v>225</v>
       </c>
+      <c r="G22" s="0" t="s">
+        <v>225</v>
+      </c>
       <c r="H22" s="0" t="s">
         <v>226</v>
       </c>
@@ -3096,6 +3149,9 @@
       <c r="F23" s="0" t="s">
         <v>238</v>
       </c>
+      <c r="G23" s="0" t="s">
+        <v>238</v>
+      </c>
       <c r="H23" s="0" t="s">
         <v>239</v>
       </c>
@@ -3146,6 +3202,9 @@
       <c r="F24" s="0" t="s">
         <v>251</v>
       </c>
+      <c r="G24" s="0" t="s">
+        <v>251</v>
+      </c>
       <c r="H24" s="0" t="s">
         <v>252</v>
       </c>
@@ -3193,6 +3252,9 @@
       <c r="F25" s="0" t="s">
         <v>264</v>
       </c>
+      <c r="G25" s="0" t="s">
+        <v>264</v>
+      </c>
       <c r="H25" s="0" t="s">
         <v>265</v>
       </c>
@@ -3263,6 +3325,9 @@
       <c r="F27" s="0" t="s">
         <v>278</v>
       </c>
+      <c r="G27" s="0" t="s">
+        <v>278</v>
+      </c>
       <c r="O27" s="0" t="s">
         <v>279</v>
       </c>
@@ -3286,6 +3351,9 @@
       <c r="F28" s="0" t="s">
         <v>282</v>
       </c>
+      <c r="G28" s="0" t="s">
+        <v>282</v>
+      </c>
       <c r="H28" s="0" t="s">
         <v>283</v>
       </c>
@@ -3321,6 +3389,9 @@
       <c r="F29" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="G29" s="0" t="s">
+        <v>289</v>
+      </c>
       <c r="H29" s="0" t="s">
         <v>290</v>
       </c>
@@ -3356,6 +3427,9 @@
       <c r="F30" s="0" t="s">
         <v>298</v>
       </c>
+      <c r="G30" s="0" t="s">
+        <v>298</v>
+      </c>
       <c r="H30" s="0" t="s">
         <v>299</v>
       </c>
@@ -3400,6 +3474,9 @@
       <c r="F31" s="0" t="s">
         <v>309</v>
       </c>
+      <c r="G31" s="0" t="s">
+        <v>309</v>
+      </c>
       <c r="H31" s="0" t="s">
         <v>310</v>
       </c>
@@ -3438,6 +3515,9 @@
       <c r="F32" s="0" t="s">
         <v>318</v>
       </c>
+      <c r="G32" s="0" t="s">
+        <v>318</v>
+      </c>
       <c r="L32" s="0" t="s">
         <v>319</v>
       </c>
@@ -3467,6 +3547,9 @@
       <c r="F33" s="0" t="s">
         <v>325</v>
       </c>
+      <c r="G33" s="0" t="s">
+        <v>325</v>
+      </c>
       <c r="H33" s="0" t="s">
         <v>326</v>
       </c>
@@ -3534,6 +3617,9 @@
       <c r="F35" s="0" t="s">
         <v>341</v>
       </c>
+      <c r="G35" s="0" t="s">
+        <v>341</v>
+      </c>
       <c r="H35" s="0" t="s">
         <v>342</v>
       </c>
@@ -3604,6 +3690,9 @@
       <c r="F37" s="0" t="s">
         <v>359</v>
       </c>
+      <c r="G37" s="0" t="s">
+        <v>359</v>
+      </c>
       <c r="J37" s="0" t="s">
         <v>360</v>
       </c>
@@ -3633,6 +3722,9 @@
       <c r="F38" s="0" t="s">
         <v>366</v>
       </c>
+      <c r="G38" s="0" t="s">
+        <v>366</v>
+      </c>
       <c r="J38" s="0" t="s">
         <v>367</v>
       </c>
@@ -3668,6 +3760,9 @@
       <c r="F39" s="0" t="s">
         <v>375</v>
       </c>
+      <c r="G39" s="0" t="s">
+        <v>375</v>
+      </c>
       <c r="J39" s="0" t="s">
         <v>376</v>
       </c>
@@ -3726,6 +3821,9 @@
       <c r="F41" s="0" t="s">
         <v>389</v>
       </c>
+      <c r="G41" s="0" t="s">
+        <v>389</v>
+      </c>
       <c r="N41" s="0" t="s">
         <v>390</v>
       </c>
@@ -3749,6 +3847,9 @@
       <c r="F42" s="0" t="s">
         <v>394</v>
       </c>
+      <c r="G42" s="0" t="s">
+        <v>394</v>
+      </c>
       <c r="J42" s="0" t="s">
         <v>395</v>
       </c>
@@ -3778,6 +3879,9 @@
       <c r="F43" s="0" t="s">
         <v>401</v>
       </c>
+      <c r="G43" s="0" t="s">
+        <v>401</v>
+      </c>
       <c r="K43" s="0" t="s">
         <v>402</v>
       </c>
@@ -3804,6 +3908,9 @@
       <c r="F44" s="0" t="s">
         <v>407</v>
       </c>
+      <c r="G44" s="0" t="s">
+        <v>407</v>
+      </c>
       <c r="J44" s="0" t="s">
         <v>408</v>
       </c>
@@ -3836,6 +3943,9 @@
       <c r="F45" s="0" t="s">
         <v>415</v>
       </c>
+      <c r="G45" s="0" t="s">
+        <v>415</v>
+      </c>
       <c r="J45" s="0" t="s">
         <v>416</v>
       </c>
@@ -3865,6 +3975,9 @@
       <c r="F46" s="0" t="s">
         <v>423</v>
       </c>
+      <c r="G46" s="0" t="s">
+        <v>423</v>
+      </c>
       <c r="H46" s="0" t="s">
         <v>424</v>
       </c>
@@ -3912,6 +4025,9 @@
       <c r="F47" s="0" t="s">
         <v>435</v>
       </c>
+      <c r="G47" s="0" t="s">
+        <v>435</v>
+      </c>
       <c r="H47" s="0" t="s">
         <v>436</v>
       </c>
@@ -3959,6 +4075,9 @@
       <c r="F48" s="0" t="s">
         <v>447</v>
       </c>
+      <c r="G48" s="0" t="s">
+        <v>447</v>
+      </c>
       <c r="H48" s="0" t="s">
         <v>448</v>
       </c>
@@ -4009,6 +4128,9 @@
       <c r="F49" s="0" t="s">
         <v>460</v>
       </c>
+      <c r="G49" s="0" t="s">
+        <v>460</v>
+      </c>
       <c r="H49" s="0" t="s">
         <v>461</v>
       </c>
@@ -4056,6 +4178,9 @@
       <c r="F50" s="0" t="s">
         <v>472</v>
       </c>
+      <c r="G50" s="0" t="s">
+        <v>472</v>
+      </c>
       <c r="H50" s="0" t="s">
         <v>473</v>
       </c>
@@ -4106,6 +4231,9 @@
       <c r="F51" s="0" t="s">
         <v>485</v>
       </c>
+      <c r="G51" s="0" t="s">
+        <v>485</v>
+      </c>
       <c r="H51" s="0" t="s">
         <v>486</v>
       </c>
@@ -4150,6 +4278,9 @@
       <c r="F52" s="0" t="s">
         <v>496</v>
       </c>
+      <c r="G52" s="0" t="s">
+        <v>496</v>
+      </c>
       <c r="H52" s="0" t="s">
         <v>497</v>
       </c>
@@ -4197,6 +4328,9 @@
       <c r="F53" s="0" t="s">
         <v>508</v>
       </c>
+      <c r="G53" s="0" t="s">
+        <v>508</v>
+      </c>
       <c r="H53" s="0" t="s">
         <v>509</v>
       </c>
@@ -4247,6 +4381,9 @@
       <c r="F54" s="0" t="s">
         <v>522</v>
       </c>
+      <c r="G54" s="0" t="s">
+        <v>522</v>
+      </c>
       <c r="H54" s="0" t="s">
         <v>523</v>
       </c>
@@ -4294,6 +4431,9 @@
       <c r="F55" s="0" t="s">
         <v>534</v>
       </c>
+      <c r="G55" s="0" t="s">
+        <v>534</v>
+      </c>
       <c r="H55" s="0" t="s">
         <v>535</v>
       </c>
@@ -4341,6 +4481,9 @@
       <c r="F56" s="0" t="s">
         <v>547</v>
       </c>
+      <c r="G56" s="0" t="s">
+        <v>547</v>
+      </c>
       <c r="H56" s="0" t="s">
         <v>548</v>
       </c>
@@ -4382,6 +4525,9 @@
       <c r="F57" s="0" t="s">
         <v>557</v>
       </c>
+      <c r="G57" s="0" t="s">
+        <v>557</v>
+      </c>
       <c r="H57" s="0" t="s">
         <v>558</v>
       </c>
@@ -4411,6 +4557,9 @@
       <c r="F58" s="0" t="s">
         <v>547</v>
       </c>
+      <c r="G58" s="0" t="s">
+        <v>547</v>
+      </c>
       <c r="Q58" s="0" t="s">
         <v>563</v>
       </c>
@@ -4434,6 +4583,9 @@
       <c r="F59" s="0" t="s">
         <v>557</v>
       </c>
+      <c r="G59" s="0" t="s">
+        <v>557</v>
+      </c>
       <c r="H59" s="0" t="s">
         <v>567</v>
       </c>
@@ -4463,6 +4615,9 @@
       <c r="F60" s="0" t="s">
         <v>573</v>
       </c>
+      <c r="G60" s="0" t="s">
+        <v>573</v>
+      </c>
       <c r="H60" s="0" t="s">
         <v>574</v>
       </c>
@@ -4507,6 +4662,9 @@
       <c r="F61" s="0" t="s">
         <v>584</v>
       </c>
+      <c r="G61" s="0" t="s">
+        <v>584</v>
+      </c>
       <c r="H61" s="0" t="s">
         <v>585</v>
       </c>
@@ -4551,6 +4709,9 @@
       <c r="F62" s="0" t="s">
         <v>594</v>
       </c>
+      <c r="G62" s="0" t="s">
+        <v>594</v>
+      </c>
       <c r="H62" s="0" t="s">
         <v>595</v>
       </c>
@@ -4592,6 +4753,9 @@
       <c r="F63" s="0" t="s">
         <v>603</v>
       </c>
+      <c r="G63" s="0" t="s">
+        <v>603</v>
+      </c>
       <c r="H63" s="0" t="s">
         <v>604</v>
       </c>
@@ -4636,6 +4800,9 @@
       <c r="F64" s="0" t="s">
         <v>612</v>
       </c>
+      <c r="G64" s="0" t="s">
+        <v>612</v>
+      </c>
       <c r="H64" s="0" t="s">
         <v>613</v>
       </c>
@@ -4680,6 +4847,9 @@
       <c r="F65" s="0" t="s">
         <v>623</v>
       </c>
+      <c r="G65" s="0" t="s">
+        <v>623</v>
+      </c>
       <c r="H65" s="0" t="s">
         <v>624</v>
       </c>
@@ -4715,6 +4885,9 @@
       <c r="F66" s="0" t="s">
         <v>631</v>
       </c>
+      <c r="G66" s="0" t="s">
+        <v>631</v>
+      </c>
       <c r="H66" s="0" t="s">
         <v>632</v>
       </c>
@@ -4750,6 +4923,9 @@
       <c r="F67" s="0" t="s">
         <v>640</v>
       </c>
+      <c r="G67" s="0" t="s">
+        <v>640</v>
+      </c>
       <c r="K67" s="0" t="s">
         <v>641</v>
       </c>
@@ -4777,6 +4953,9 @@
         <v>646</v>
       </c>
       <c r="F68" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="G68" s="0" t="s">
         <v>647</v>
       </c>
       <c r="K68" s="0" t="s">
